--- a/UT3 - Algoritmos lineales/UT3_TA1.xlsx
+++ b/UT3 - Algoritmos lineales/UT3_TA1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco\Documents\GitHub\portafolio_IA1\UT3 - Algoritmos lineales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D4D887-D637-40DD-9BFD-0327522B26CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204D4B64-D6C8-4F8B-BD9F-7F98CF12690C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{E71AD0E3-CDC8-46FF-AACD-8DA384C59597}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>X</t>
   </si>
@@ -102,7 +102,19 @@
     <t>Regresion lineal con descenso de gradiente</t>
   </si>
   <si>
-    <t>B0 y B1 finales</t>
+    <t>24 iteraciones</t>
+  </si>
+  <si>
+    <t>48 iteraciones</t>
+  </si>
+  <si>
+    <t>72 iteraciones</t>
+  </si>
+  <si>
+    <t>24 iter</t>
+  </si>
+  <si>
+    <t>72 iter</t>
   </si>
 </sst>
 </file>
@@ -138,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -198,26 +210,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,6 +1163,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1074,6 +1280,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1338,7 +1599,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$U$31:$U$111</c:f>
+              <c:f>Hoja1!$AC$30:$AC$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -1590,7 +1851,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$V$31:$V$111</c:f>
+              <c:f>Hoja1!$AD$30:$AD$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -1879,6 +2140,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1941,6 +2257,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4179,16 +4550,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4549,10 +4920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98B7DEB-7786-4264-971C-1C44DE918757}">
-  <dimension ref="A1:AG111"/>
+  <dimension ref="A1:AG110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AE32" sqref="AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4590,22 +4961,26 @@
       <c r="S1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="7"/>
-      <c r="AD1" s="2" t="s">
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="8"/>
+      <c r="AC1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4659,14 +5034,16 @@
       <c r="AA2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="3">
         <v>1</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2" s="3">
         <f>U$27+V$27*AD2</f>
         <v>0.85600925859662547</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="20">
         <f>(AE2-B2)^2</f>
         <v>2.0733333609893476E-2</v>
       </c>
@@ -4723,14 +5100,16 @@
       <c r="AA3" s="1">
         <v>0.01</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="3">
         <v>3</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AE3" s="3">
         <f t="shared" ref="AE3:AE7" si="3">U$27+V$27*AD3</f>
         <v>2.132403973546511</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="20">
         <f t="shared" ref="AG3:AG7" si="4">(AE3-B3)^2</f>
         <v>1.7530812210905189E-2</v>
       </c>
@@ -4779,21 +5158,23 @@
         <v>2</v>
       </c>
       <c r="Y4" s="1">
-        <f t="shared" ref="Y4:Y26" si="5">U4+V4*W4</f>
+        <f t="shared" ref="Y4:Y67" si="5">U4+V4*W4</f>
         <v>0.04</v>
       </c>
       <c r="Z4" s="1">
-        <f t="shared" ref="Z4:Z26" si="6">Y4-X4</f>
+        <f t="shared" ref="Z4:Z67" si="6">Y4-X4</f>
         <v>-1.96</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="3">
         <v>2</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4" s="3">
         <f t="shared" si="3"/>
         <v>1.4942066160715681</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="20">
         <f t="shared" si="4"/>
         <v>2.2674137150826379</v>
       </c>
@@ -4828,11 +5209,11 @@
         <v>3</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" ref="U5:U27" si="7">U4-$AA$3*$Z4</f>
+        <f t="shared" ref="U5:U68" si="7">U4-$AA$3*$Z4</f>
         <v>2.9600000000000001E-2</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" ref="V5:V27" si="8">V4-$AA$3*$Z4*W4</f>
+        <f t="shared" ref="V5:V68" si="8">V4-$AA$3*$Z4*W4</f>
         <v>6.88E-2</v>
       </c>
       <c r="W5" s="1">
@@ -4849,14 +5230,16 @@
         <f t="shared" si="6"/>
         <v>-2.8327999999999998</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="3">
         <v>4</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5" s="3">
         <f t="shared" si="3"/>
         <v>2.7706013310214535</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="20">
         <f t="shared" si="4"/>
         <v>5.2623749329128777E-2</v>
       </c>
@@ -4912,14 +5295,16 @@
         <f t="shared" si="6"/>
         <v>-2.440248</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="3">
         <v>6</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AE6" s="3">
         <f t="shared" si="3"/>
         <v>4.0469960459713388</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="20">
         <f t="shared" si="4"/>
         <v>4.1901928122222953</v>
       </c>
@@ -4975,14 +5360,16 @@
         <f t="shared" si="6"/>
         <v>-0.57927399999999984</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="3">
         <v>5</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="3">
         <f t="shared" si="3"/>
         <v>3.4087986884963963</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="20">
         <f t="shared" si="4"/>
         <v>2.5319216137307885</v>
       </c>
@@ -5010,16 +5397,21 @@
         <f t="shared" si="6"/>
         <v>-3.6227649799999999</v>
       </c>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="21"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="8"/>
       <c r="U9" s="1">
         <f t="shared" si="7"/>
         <v>0.1243508698</v>
@@ -5042,7 +5434,11 @@
         <f t="shared" si="6"/>
         <v>-0.43668852120000001</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5085,7 +5481,11 @@
         <f t="shared" si="6"/>
         <v>-0.54129976235199995</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="20">
         <f>SUM(AG2:AG7)</f>
         <v>9.0804160361856496</v>
       </c>
@@ -5113,6 +5513,11 @@
         <f t="shared" si="6"/>
         <v>-1.94673627319936</v>
       </c>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="21"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G12" s="2" t="s">
@@ -5143,11 +5548,15 @@
         <f t="shared" si="6"/>
         <v>-0.85239703444629766</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G13" s="1">
         <f>G10/H10</f>
         <v>0.34285714285714286</v>
@@ -5178,12 +5587,16 @@
         <f t="shared" si="6"/>
         <v>1.3577046492583715</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="25">
         <f>SQRT(AG10/COUNT(AG2:AG7))</f>
         <v>1.2302043215245215</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="U14" s="1">
         <f t="shared" si="7"/>
         <v>0.14854503921939285</v>
@@ -5208,10 +5621,10 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="4"/>
       <c r="U15" s="1">
         <f t="shared" si="7"/>
         <v>0.17450284807875407</v>
@@ -5234,6 +5647,19 @@
         <f t="shared" si="6"/>
         <v>-0.24457329265554295</v>
       </c>
+      <c r="AC15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -5273,8 +5699,21 @@
         <f t="shared" si="6"/>
         <v>-7.2942642417915149E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="3">
+        <f>U$75+V$75*AD16</f>
+        <v>0.94767534060414049</v>
+      </c>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="20">
+        <f>(AE16-B2)^2</f>
+        <v>2.7378699808927086E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -5315,8 +5754,21 @@
         <f t="shared" si="6"/>
         <v>-1.6512062496409194</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE17" s="3">
+        <f t="shared" ref="AE17:AE21" si="11">U$75+V$75*AD17</f>
+        <v>2.1951217610551277</v>
+      </c>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="20">
+        <f t="shared" ref="AG17:AG21" si="12">(AE17-B3)^2</f>
+        <v>3.8072501637254341E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -5325,7 +5777,7 @@
         <v>2.4952380952380953</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" ref="D18:D22" si="11">(B18-B3)^2</f>
+        <f t="shared" ref="D18:D22" si="13">(B18-B3)^2</f>
         <v>0.24526077097505672</v>
       </c>
       <c r="G18" s="1">
@@ -5357,8 +5809,21 @@
         <f t="shared" si="6"/>
         <v>-0.33148194424364474</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="3">
+        <f t="shared" si="11"/>
+        <v>1.5713985508296342</v>
+      </c>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="20">
+        <f t="shared" si="12"/>
+        <v>2.0409021005716692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -5367,7 +5832,7 @@
         <v>2.1523809523809523</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.71845804988662143</v>
       </c>
       <c r="G19" s="1">
@@ -5399,8 +5864,21 @@
         <f t="shared" si="6"/>
         <v>1.9885525347324955</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE19" s="3">
+        <f t="shared" si="11"/>
+        <v>2.8188449712806216</v>
+      </c>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="20">
+        <f t="shared" si="12"/>
+        <v>3.2817144430318808E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -5409,7 +5887,7 @@
         <v>2.8380952380952378</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.6213151927437742E-2</v>
       </c>
       <c r="G20" s="1">
@@ -5441,8 +5919,21 @@
         <f t="shared" si="6"/>
         <v>-2.2597400252619386</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="3">
+        <v>6</v>
+      </c>
+      <c r="AE20" s="3">
+        <f t="shared" si="11"/>
+        <v>4.0662913917316086</v>
+      </c>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="20">
+        <f t="shared" si="12"/>
+        <v>4.2695601155441478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -5451,7 +5942,7 @@
         <v>3.5238095238095237</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.3219954648526073</v>
       </c>
       <c r="G21" s="1">
@@ -5483,8 +5974,21 @@
         <f t="shared" si="6"/>
         <v>-0.17426811231986405</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="3">
+        <f t="shared" si="11"/>
+        <v>3.4425681815061155</v>
+      </c>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="20">
+        <f t="shared" si="12"/>
+        <v>2.4255938692571677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -5493,7 +5997,7 @@
         <v>3.1809523809523812</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.3089342403628108</v>
       </c>
       <c r="G22" s="1">
@@ -5525,8 +6029,13 @@
         <f t="shared" si="6"/>
         <v>8.3732858985944958E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="21"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G23" s="1">
         <v>0.60000000000000009</v>
       </c>
@@ -5556,8 +6065,15 @@
         <f t="shared" si="6"/>
         <v>-1.5493862456727769</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
@@ -5590,8 +6106,16 @@
         <f t="shared" si="6"/>
         <v>-0.16044984604197188</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="14"/>
+      <c r="AE24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="20">
+        <f>SUM(AG16:AG21)</f>
+        <v>8.809683601421451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D25" s="1">
         <f>SUM(D17:D22)</f>
         <v>7.2761904761904752</v>
@@ -5625,8 +6149,13 @@
         <f t="shared" si="6"/>
         <v>2.1911297028156875</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="14"/>
+      <c r="AE25" s="14"/>
+      <c r="AF25" s="14"/>
+      <c r="AG25" s="21"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G26" s="1">
         <v>0.9</v>
       </c>
@@ -5656,8 +6185,15 @@
         <f t="shared" si="6"/>
         <v>-2.1502720425724378</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="2" t="s">
         <v>16</v>
       </c>
@@ -5668,16 +6204,42 @@
         <f t="shared" si="10"/>
         <v>1.8095238095238093</v>
       </c>
-      <c r="U27" s="1">
+      <c r="S27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="T27" s="11"/>
+      <c r="U27" s="3">
         <f t="shared" si="7"/>
         <v>0.21781190112168286</v>
       </c>
-      <c r="V27" s="1">
+      <c r="V27" s="3">
         <f t="shared" si="8"/>
         <v>0.63819735747494266</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W27" s="3">
+        <v>1</v>
+      </c>
+      <c r="X27" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="3">
+        <f t="shared" si="5"/>
+        <v>0.85600925859662547</v>
+      </c>
+      <c r="Z27" s="3">
+        <f t="shared" si="6"/>
+        <v>-0.14399074140337453</v>
+      </c>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="25">
+        <f>SQRT(AG24/COUNT(AG16:AG21))</f>
+        <v>1.2117262893231739</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D28" s="1">
         <f>SQRT(D25/COUNT(D17:D22))</f>
         <v>1.1012258681571245</v>
@@ -5689,12 +6251,30 @@
         <f t="shared" si="10"/>
         <v>1.8438095238095238</v>
       </c>
-      <c r="U28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="V28" s="8"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U28" s="3">
+        <f t="shared" si="7"/>
+        <v>0.2192518085357166</v>
+      </c>
+      <c r="V28" s="3">
+        <f t="shared" si="8"/>
+        <v>0.63963726488897643</v>
+      </c>
+      <c r="W28" s="3">
+        <v>3</v>
+      </c>
+      <c r="X28" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="3">
+        <f t="shared" si="5"/>
+        <v>2.1381636032026456</v>
+      </c>
+      <c r="Z28" s="3">
+        <f t="shared" si="6"/>
+        <v>0.13816360320264565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G29" s="1">
         <v>1.2</v>
       </c>
@@ -5702,12 +6282,43 @@
         <f t="shared" si="10"/>
         <v>1.878095238095238</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="U29" s="3">
+        <f t="shared" si="7"/>
+        <v>0.21787017250369015</v>
+      </c>
+      <c r="V29" s="3">
+        <f t="shared" si="8"/>
+        <v>0.63549235679289706</v>
+      </c>
+      <c r="W29" s="3">
+        <v>2</v>
+      </c>
+      <c r="X29" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4888548860894844</v>
+      </c>
+      <c r="Z29" s="3">
+        <f t="shared" si="6"/>
+        <v>-1.5111451139105156</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="4"/>
       <c r="G30" s="1">
         <v>1.3</v>
       </c>
@@ -5715,19 +6326,42 @@
         <f t="shared" si="10"/>
         <v>1.9123809523809523</v>
       </c>
-      <c r="U30" s="2" t="s">
+      <c r="U30" s="3">
+        <f t="shared" si="7"/>
+        <v>0.23298162364279532</v>
+      </c>
+      <c r="V30" s="3">
+        <f t="shared" si="8"/>
+        <v>0.6657152590711074</v>
+      </c>
+      <c r="W30" s="3">
+        <v>4</v>
+      </c>
+      <c r="X30" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8958426599272249</v>
+      </c>
+      <c r="Z30" s="3">
+        <f t="shared" si="6"/>
+        <v>-0.10415734007277511</v>
+      </c>
+      <c r="AC30" s="1">
         <v>0</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="AD30" s="1">
+        <f>U$27+V$27*AC30</f>
+        <v>0.21781190112168286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <f>PEARSON(A2:A7,B2:B7)*(STDEV(B2:B7)/STDEV(A2:A7))</f>
         <v>0.34285714285714292</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="5"/>
       <c r="G31" s="1">
         <v>1.4</v>
       </c>
@@ -5735,15 +6369,37 @@
         <f t="shared" si="10"/>
         <v>1.9466666666666665</v>
       </c>
-      <c r="U31" s="1">
-        <v>0</v>
-      </c>
-      <c r="V31" s="1">
-        <f>U$27+V$27*U31</f>
-        <v>0.21781190112168286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U31" s="3">
+        <f t="shared" si="7"/>
+        <v>0.23402319704352306</v>
+      </c>
+      <c r="V31" s="3">
+        <f t="shared" si="8"/>
+        <v>0.66988155267401839</v>
+      </c>
+      <c r="W31" s="3">
+        <v>6</v>
+      </c>
+      <c r="X31" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="3">
+        <f t="shared" si="5"/>
+        <v>4.2533125130876339</v>
+      </c>
+      <c r="Z31" s="3">
+        <f t="shared" si="6"/>
+        <v>2.2533125130876339</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AD31" s="1">
+        <f>U$27+V$27*AC31</f>
+        <v>0.28163163686917714</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="G32" s="1">
         <v>1.5</v>
       </c>
@@ -5751,15 +6407,37 @@
         <f t="shared" si="10"/>
         <v>1.9809523809523808</v>
       </c>
-      <c r="U32" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="V32" s="1">
-        <f t="shared" ref="V32:V95" si="12">U$27+V$27*U32</f>
-        <v>0.28163163686917714</v>
-      </c>
-    </row>
-    <row r="33" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U32" s="3">
+        <f t="shared" si="7"/>
+        <v>0.21149007191264674</v>
+      </c>
+      <c r="V32" s="3">
+        <f t="shared" si="8"/>
+        <v>0.53468280188876038</v>
+      </c>
+      <c r="W32" s="3">
+        <v>5</v>
+      </c>
+      <c r="X32" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y32" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8849040813564488</v>
+      </c>
+      <c r="Z32" s="3">
+        <f t="shared" si="6"/>
+        <v>-2.1150959186435512</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AD32" s="1">
+        <f>U$27+V$27*AC32</f>
+        <v>0.34545137261667136</v>
+      </c>
+    </row>
+    <row r="33" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G33" s="1">
         <v>1.6</v>
       </c>
@@ -5767,15 +6445,37 @@
         <f t="shared" si="10"/>
         <v>2.0152380952380953</v>
       </c>
-      <c r="U33" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="V33" s="1">
-        <f t="shared" si="12"/>
-        <v>0.34545137261667136</v>
-      </c>
-    </row>
-    <row r="34" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U33" s="3">
+        <f t="shared" si="7"/>
+        <v>0.23264103109908224</v>
+      </c>
+      <c r="V33" s="3">
+        <f t="shared" si="8"/>
+        <v>0.64043759782093801</v>
+      </c>
+      <c r="W33" s="3">
+        <v>1</v>
+      </c>
+      <c r="X33" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="3">
+        <f t="shared" si="5"/>
+        <v>0.87307862892002031</v>
+      </c>
+      <c r="Z33" s="3">
+        <f t="shared" si="6"/>
+        <v>-0.12692137107997969</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AD33" s="1">
+        <f>U$27+V$27*AC33</f>
+        <v>0.40927110836416569</v>
+      </c>
+    </row>
+    <row r="34" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G34" s="1">
         <v>1.7</v>
       </c>
@@ -5783,15 +6483,37 @@
         <f t="shared" si="10"/>
         <v>2.0495238095238095</v>
       </c>
-      <c r="U34" s="1">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="V34" s="1">
-        <f t="shared" si="12"/>
-        <v>0.40927110836416569</v>
-      </c>
-    </row>
-    <row r="35" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U34" s="3">
+        <f t="shared" si="7"/>
+        <v>0.23391024480988204</v>
+      </c>
+      <c r="V34" s="3">
+        <f t="shared" si="8"/>
+        <v>0.64170681153173781</v>
+      </c>
+      <c r="W34" s="3">
+        <v>3</v>
+      </c>
+      <c r="X34" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="3">
+        <f t="shared" si="5"/>
+        <v>2.1590306794050953</v>
+      </c>
+      <c r="Z34" s="3">
+        <f t="shared" si="6"/>
+        <v>0.1590306794050953</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AD34" s="1">
+        <f>U$27+V$27*AC34</f>
+        <v>0.47309084411165991</v>
+      </c>
+    </row>
+    <row r="35" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G35" s="1">
         <v>1.8</v>
       </c>
@@ -5799,15 +6521,37 @@
         <f t="shared" si="10"/>
         <v>2.0838095238095238</v>
       </c>
-      <c r="U35" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="V35" s="1">
-        <f t="shared" si="12"/>
-        <v>0.47309084411165991</v>
-      </c>
-    </row>
-    <row r="36" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U35" s="3">
+        <f t="shared" si="7"/>
+        <v>0.23231993801583109</v>
+      </c>
+      <c r="V35" s="3">
+        <f t="shared" si="8"/>
+        <v>0.63693589114958493</v>
+      </c>
+      <c r="W35" s="3">
+        <v>2</v>
+      </c>
+      <c r="X35" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="3">
+        <f t="shared" si="5"/>
+        <v>1.506191720315001</v>
+      </c>
+      <c r="Z35" s="3">
+        <f t="shared" si="6"/>
+        <v>-1.493808279684999</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD35" s="1">
+        <f>U$27+V$27*AC35</f>
+        <v>0.53691057985915425</v>
+      </c>
+    </row>
+    <row r="36" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G36" s="1">
         <v>1.9</v>
       </c>
@@ -5815,15 +6559,37 @@
         <f t="shared" si="10"/>
         <v>2.118095238095238</v>
       </c>
-      <c r="U36" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="V36" s="1">
-        <f t="shared" si="12"/>
-        <v>0.53691057985915425</v>
-      </c>
-    </row>
-    <row r="37" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U36" s="3">
+        <f t="shared" si="7"/>
+        <v>0.24725802081268108</v>
+      </c>
+      <c r="V36" s="3">
+        <f t="shared" si="8"/>
+        <v>0.66681205674328492</v>
+      </c>
+      <c r="W36" s="3">
+        <v>4</v>
+      </c>
+      <c r="X36" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y36" s="3">
+        <f t="shared" si="5"/>
+        <v>2.9145062477858206</v>
+      </c>
+      <c r="Z36" s="3">
+        <f t="shared" si="6"/>
+        <v>-8.549375221417943E-2</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AD36" s="1">
+        <f>U$27+V$27*AC36</f>
+        <v>0.60073031560664858</v>
+      </c>
+    </row>
+    <row r="37" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G37" s="1">
         <v>2</v>
       </c>
@@ -5831,15 +6597,37 @@
         <f t="shared" si="10"/>
         <v>2.1523809523809523</v>
       </c>
-      <c r="U37" s="1">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="V37" s="1">
-        <f t="shared" si="12"/>
-        <v>0.60073031560664858</v>
-      </c>
-    </row>
-    <row r="38" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U37" s="3">
+        <f t="shared" si="7"/>
+        <v>0.24811295833482289</v>
+      </c>
+      <c r="V37" s="3">
+        <f t="shared" si="8"/>
+        <v>0.67023180683185213</v>
+      </c>
+      <c r="W37" s="3">
+        <v>6</v>
+      </c>
+      <c r="X37" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="3">
+        <f t="shared" si="5"/>
+        <v>4.2695037993259355</v>
+      </c>
+      <c r="Z37" s="3">
+        <f t="shared" si="6"/>
+        <v>2.2695037993259355</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="AD37" s="1">
+        <f>U$27+V$27*AC37</f>
+        <v>0.66455005135414269</v>
+      </c>
+    </row>
+    <row r="38" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G38" s="1">
         <v>2.1</v>
       </c>
@@ -5847,15 +6635,37 @@
         <f t="shared" si="10"/>
         <v>2.1866666666666665</v>
       </c>
-      <c r="U38" s="1">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="V38" s="1">
-        <f t="shared" si="12"/>
-        <v>0.66455005135414269</v>
-      </c>
-    </row>
-    <row r="39" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U38" s="3">
+        <f t="shared" si="7"/>
+        <v>0.22541792034156352</v>
+      </c>
+      <c r="V38" s="3">
+        <f t="shared" si="8"/>
+        <v>0.53406157887229599</v>
+      </c>
+      <c r="W38" s="3">
+        <v>5</v>
+      </c>
+      <c r="X38" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y38" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8957258147030438</v>
+      </c>
+      <c r="Z38" s="3">
+        <f t="shared" si="6"/>
+        <v>-2.1042741852969562</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AD38" s="1">
+        <f>U$27+V$27*AC38</f>
+        <v>0.72836978710163702</v>
+      </c>
+    </row>
+    <row r="39" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G39" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -5863,15 +6673,37 @@
         <f t="shared" si="10"/>
         <v>2.2209523809523808</v>
       </c>
-      <c r="U39" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="V39" s="1">
-        <f t="shared" si="12"/>
-        <v>0.72836978710163702</v>
-      </c>
-    </row>
-    <row r="40" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U39" s="3">
+        <f t="shared" si="7"/>
+        <v>0.24646066219453308</v>
+      </c>
+      <c r="V39" s="3">
+        <f t="shared" si="8"/>
+        <v>0.63927528813714385</v>
+      </c>
+      <c r="W39" s="3">
+        <v>1</v>
+      </c>
+      <c r="X39" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="3">
+        <f t="shared" si="5"/>
+        <v>0.88573595033167696</v>
+      </c>
+      <c r="Z39" s="3">
+        <f t="shared" si="6"/>
+        <v>-0.11426404966832304</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="AD39" s="1">
+        <f>U$27+V$27*AC39</f>
+        <v>0.79218952284913136</v>
+      </c>
+    </row>
+    <row r="40" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G40" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -5879,15 +6711,37 @@
         <f t="shared" si="10"/>
         <v>2.255238095238095</v>
       </c>
-      <c r="U40" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="V40" s="1">
-        <f t="shared" si="12"/>
-        <v>0.79218952284913136</v>
-      </c>
-    </row>
-    <row r="41" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U40" s="3">
+        <f t="shared" si="7"/>
+        <v>0.2476033026912163</v>
+      </c>
+      <c r="V40" s="3">
+        <f t="shared" si="8"/>
+        <v>0.64041792863382707</v>
+      </c>
+      <c r="W40" s="3">
+        <v>3</v>
+      </c>
+      <c r="X40" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y40" s="3">
+        <f t="shared" si="5"/>
+        <v>2.1688570885926977</v>
+      </c>
+      <c r="Z40" s="3">
+        <f t="shared" si="6"/>
+        <v>0.16885708859269766</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="1">
+        <f>U$27+V$27*AC40</f>
+        <v>0.85600925859662547</v>
+      </c>
+    </row>
+    <row r="41" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G41" s="1">
         <v>2.4</v>
       </c>
@@ -5895,15 +6749,37 @@
         <f t="shared" si="10"/>
         <v>2.2895238095238093</v>
       </c>
-      <c r="U41" s="1">
-        <v>1</v>
-      </c>
-      <c r="V41" s="1">
-        <f t="shared" si="12"/>
-        <v>0.85600925859662547</v>
-      </c>
-    </row>
-    <row r="42" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U41" s="3">
+        <f t="shared" si="7"/>
+        <v>0.24591473180528933</v>
+      </c>
+      <c r="V41" s="3">
+        <f t="shared" si="8"/>
+        <v>0.63535221597604619</v>
+      </c>
+      <c r="W41" s="3">
+        <v>2</v>
+      </c>
+      <c r="X41" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y41" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5166191637573818</v>
+      </c>
+      <c r="Z41" s="3">
+        <f t="shared" si="6"/>
+        <v>-1.4833808362426182</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD41" s="1">
+        <f>U$27+V$27*AC41</f>
+        <v>0.9198289943441198</v>
+      </c>
+    </row>
+    <row r="42" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G42" s="1">
         <v>2.5</v>
       </c>
@@ -5911,15 +6787,37 @@
         <f t="shared" si="10"/>
         <v>2.3238095238095235</v>
       </c>
-      <c r="U42" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V42" s="1">
-        <f t="shared" si="12"/>
-        <v>0.9198289943441198</v>
-      </c>
-    </row>
-    <row r="43" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U42" s="3">
+        <f t="shared" si="7"/>
+        <v>0.26074854016771554</v>
+      </c>
+      <c r="V42" s="3">
+        <f t="shared" si="8"/>
+        <v>0.66501983270089859</v>
+      </c>
+      <c r="W42" s="3">
+        <v>4</v>
+      </c>
+      <c r="X42" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y42" s="3">
+        <f t="shared" si="5"/>
+        <v>2.9208278709713098</v>
+      </c>
+      <c r="Z42" s="3">
+        <f t="shared" si="6"/>
+        <v>-7.9172129028690197E-2</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="AD42" s="1">
+        <f>U$27+V$27*AC42</f>
+        <v>0.98364873009161413</v>
+      </c>
+    </row>
+    <row r="43" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G43" s="1">
         <v>2.6</v>
       </c>
@@ -5927,15 +6825,37 @@
         <f t="shared" si="10"/>
         <v>2.3580952380952382</v>
       </c>
-      <c r="U43" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="V43" s="1">
-        <f t="shared" si="12"/>
-        <v>0.98364873009161413</v>
-      </c>
-    </row>
-    <row r="44" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U43" s="3">
+        <f t="shared" si="7"/>
+        <v>0.26154026145800247</v>
+      </c>
+      <c r="V43" s="3">
+        <f t="shared" si="8"/>
+        <v>0.6681867178620462</v>
+      </c>
+      <c r="W43" s="3">
+        <v>6</v>
+      </c>
+      <c r="X43" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y43" s="3">
+        <f t="shared" si="5"/>
+        <v>4.2706605686302801</v>
+      </c>
+      <c r="Z43" s="3">
+        <f t="shared" si="6"/>
+        <v>2.2706605686302801</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="AD43" s="1">
+        <f>U$27+V$27*AC43</f>
+        <v>1.0474684658391082</v>
+      </c>
+    </row>
+    <row r="44" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G44" s="1">
         <v>2.7</v>
       </c>
@@ -5943,15 +6863,37 @@
         <f t="shared" si="10"/>
         <v>2.3923809523809525</v>
       </c>
-      <c r="U44" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="V44" s="1">
-        <f t="shared" si="12"/>
-        <v>1.0474684658391082</v>
-      </c>
-    </row>
-    <row r="45" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U44" s="3">
+        <f t="shared" si="7"/>
+        <v>0.23883365577169965</v>
+      </c>
+      <c r="V44" s="3">
+        <f t="shared" si="8"/>
+        <v>0.53194708374422939</v>
+      </c>
+      <c r="W44" s="3">
+        <v>5</v>
+      </c>
+      <c r="X44" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y44" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8985690744928467</v>
+      </c>
+      <c r="Z44" s="3">
+        <f t="shared" si="6"/>
+        <v>-2.1014309255071533</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="AD44" s="1">
+        <f>U$27+V$27*AC44</f>
+        <v>1.1112882015866026</v>
+      </c>
+    </row>
+    <row r="45" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G45" s="1">
         <v>2.8</v>
       </c>
@@ -5959,15 +6901,37 @@
         <f t="shared" si="10"/>
         <v>2.4266666666666667</v>
       </c>
-      <c r="U45" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="V45" s="1">
-        <f t="shared" si="12"/>
-        <v>1.1112882015866026</v>
-      </c>
-    </row>
-    <row r="46" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U45" s="3">
+        <f t="shared" si="7"/>
+        <v>0.25984796502677121</v>
+      </c>
+      <c r="V45" s="3">
+        <f t="shared" si="8"/>
+        <v>0.63701863001958703</v>
+      </c>
+      <c r="W45" s="3">
+        <v>1</v>
+      </c>
+      <c r="X45" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="3">
+        <f t="shared" si="5"/>
+        <v>0.89686659504635824</v>
+      </c>
+      <c r="Z45" s="3">
+        <f t="shared" si="6"/>
+        <v>-0.10313340495364176</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AD45" s="1">
+        <f>U$27+V$27*AC45</f>
+        <v>1.1751079373340969</v>
+      </c>
+    </row>
+    <row r="46" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G46" s="1">
         <v>2.9</v>
       </c>
@@ -5975,15 +6939,37 @@
         <f t="shared" si="10"/>
         <v>2.4609523809523806</v>
       </c>
-      <c r="U46" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="V46" s="1">
-        <f t="shared" si="12"/>
-        <v>1.1751079373340969</v>
-      </c>
-    </row>
-    <row r="47" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U46" s="3">
+        <f t="shared" si="7"/>
+        <v>0.26087929907630764</v>
+      </c>
+      <c r="V46" s="3">
+        <f t="shared" si="8"/>
+        <v>0.6380499640691234</v>
+      </c>
+      <c r="W46" s="3">
+        <v>3</v>
+      </c>
+      <c r="X46" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y46" s="3">
+        <f t="shared" si="5"/>
+        <v>2.1750291912836781</v>
+      </c>
+      <c r="Z46" s="3">
+        <f t="shared" si="6"/>
+        <v>0.17502919128367811</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="AD46" s="1">
+        <f>U$27+V$27*AC46</f>
+        <v>1.238927673081591</v>
+      </c>
+    </row>
+    <row r="47" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G47" s="1">
         <v>3</v>
       </c>
@@ -5991,15 +6977,37 @@
         <f t="shared" si="10"/>
         <v>2.4952380952380953</v>
       </c>
-      <c r="U47" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="V47" s="1">
-        <f t="shared" si="12"/>
-        <v>1.238927673081591</v>
-      </c>
-    </row>
-    <row r="48" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U47" s="3">
+        <f t="shared" si="7"/>
+        <v>0.25912900716347087</v>
+      </c>
+      <c r="V47" s="3">
+        <f t="shared" si="8"/>
+        <v>0.63279908833061305</v>
+      </c>
+      <c r="W47" s="3">
+        <v>2</v>
+      </c>
+      <c r="X47" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y47" s="3">
+        <f t="shared" si="5"/>
+        <v>1.524727183824697</v>
+      </c>
+      <c r="Z47" s="3">
+        <f t="shared" si="6"/>
+        <v>-1.475272816175303</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="AD47" s="1">
+        <f>U$27+V$27*AC47</f>
+        <v>1.3027474088290854</v>
+      </c>
+    </row>
+    <row r="48" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G48" s="1">
         <v>3.1</v>
       </c>
@@ -6007,933 +7015,1536 @@
         <f t="shared" si="10"/>
         <v>2.5295238095238095</v>
       </c>
-      <c r="U48" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="V48" s="1">
-        <f t="shared" si="12"/>
-        <v>1.3027474088290854</v>
-      </c>
-    </row>
-    <row r="49" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U48" s="3">
+        <f t="shared" si="7"/>
+        <v>0.27388173532522392</v>
+      </c>
+      <c r="V48" s="3">
+        <f t="shared" si="8"/>
+        <v>0.66230454465411914</v>
+      </c>
+      <c r="W48" s="3">
+        <v>4</v>
+      </c>
+      <c r="X48" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y48" s="3">
+        <f t="shared" si="5"/>
+        <v>2.9230999139417007</v>
+      </c>
+      <c r="Z48" s="3">
+        <f t="shared" si="6"/>
+        <v>-7.6900086058299344E-2</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AD48" s="1">
+        <f>U$27+V$27*AC48</f>
+        <v>1.3665671445765797</v>
+      </c>
+    </row>
+    <row r="49" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G49" s="1">
         <v>3.2</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" ref="H49:H80" si="13">H$13+G$13*G49</f>
+        <f t="shared" ref="H49:H80" si="14">H$13+G$13*G49</f>
         <v>2.5638095238095238</v>
       </c>
-      <c r="U49" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="V49" s="1">
-        <f t="shared" si="12"/>
-        <v>1.3665671445765797</v>
-      </c>
-    </row>
-    <row r="50" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U49" s="3">
+        <f t="shared" si="7"/>
+        <v>0.27465073618580693</v>
+      </c>
+      <c r="V49" s="3">
+        <f t="shared" si="8"/>
+        <v>0.66538054809645109</v>
+      </c>
+      <c r="W49" s="3">
+        <v>6</v>
+      </c>
+      <c r="X49" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y49" s="3">
+        <f t="shared" si="5"/>
+        <v>4.2669340247645131</v>
+      </c>
+      <c r="Z49" s="3">
+        <f t="shared" si="6"/>
+        <v>2.2669340247645131</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="AD49" s="1">
+        <f>U$27+V$27*AC49</f>
+        <v>1.4303868803240738</v>
+      </c>
+    </row>
+    <row r="50" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G50" s="1">
         <v>3.3</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.598095238095238</v>
       </c>
-      <c r="U50" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="V50" s="1">
-        <f t="shared" si="12"/>
-        <v>1.4303868803240738</v>
-      </c>
-    </row>
-    <row r="51" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U50" s="3">
+        <f t="shared" si="7"/>
+        <v>0.25198139593816182</v>
+      </c>
+      <c r="V50" s="3">
+        <f t="shared" si="8"/>
+        <v>0.52936450661058032</v>
+      </c>
+      <c r="W50" s="3">
+        <v>5</v>
+      </c>
+      <c r="X50" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y50" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8988039289910636</v>
+      </c>
+      <c r="Z50" s="3">
+        <f t="shared" si="6"/>
+        <v>-2.1011960710089364</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD50" s="1">
+        <f>U$27+V$27*AC50</f>
+        <v>1.4942066160715681</v>
+      </c>
+    </row>
+    <row r="51" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G51" s="1">
         <v>3.4</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.6323809523809523</v>
       </c>
-      <c r="U51" s="1">
-        <v>2</v>
-      </c>
-      <c r="V51" s="1">
-        <f t="shared" si="12"/>
-        <v>1.4942066160715681</v>
-      </c>
-    </row>
-    <row r="52" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="S51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T51" s="11"/>
+      <c r="U51" s="3">
+        <f t="shared" si="7"/>
+        <v>0.2729933566482512</v>
+      </c>
+      <c r="V51" s="3">
+        <f t="shared" si="8"/>
+        <v>0.63442431016102718</v>
+      </c>
+      <c r="W51" s="3">
+        <v>1</v>
+      </c>
+      <c r="X51" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="3">
+        <f t="shared" si="5"/>
+        <v>0.90741766680927838</v>
+      </c>
+      <c r="Z51" s="3">
+        <f t="shared" si="6"/>
+        <v>-9.2582333190721622E-2</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="AD51" s="1">
+        <f>U$27+V$27*AC51</f>
+        <v>1.5580263518190625</v>
+      </c>
+    </row>
+    <row r="52" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G52" s="1">
         <v>3.5</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="U52" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="V52" s="1">
-        <f t="shared" si="12"/>
-        <v>1.5580263518190625</v>
-      </c>
-    </row>
-    <row r="53" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U52" s="3">
+        <f t="shared" si="7"/>
+        <v>0.27391917998015841</v>
+      </c>
+      <c r="V52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.63535013349293434</v>
+      </c>
+      <c r="W52" s="3">
+        <v>3</v>
+      </c>
+      <c r="X52" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y52" s="3">
+        <f t="shared" si="5"/>
+        <v>2.1799695804589616</v>
+      </c>
+      <c r="Z52" s="3">
+        <f t="shared" si="6"/>
+        <v>0.17996958045896161</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AD52" s="1">
+        <f>U$27+V$27*AC52</f>
+        <v>1.6218460875665568</v>
+      </c>
+    </row>
+    <row r="53" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G53" s="1">
         <v>3.6</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.7009523809523808</v>
       </c>
-      <c r="U53" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="V53" s="1">
-        <f t="shared" si="12"/>
-        <v>1.6218460875665568</v>
-      </c>
-    </row>
-    <row r="54" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U53" s="3">
+        <f t="shared" si="7"/>
+        <v>0.2721194841755688</v>
+      </c>
+      <c r="V53" s="3">
+        <f t="shared" si="8"/>
+        <v>0.62995104607916552</v>
+      </c>
+      <c r="W53" s="3">
+        <v>2</v>
+      </c>
+      <c r="X53" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y53" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5320215763338998</v>
+      </c>
+      <c r="Z53" s="3">
+        <f t="shared" si="6"/>
+        <v>-1.4679784236661002</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AD53" s="1">
+        <f>U$27+V$27*AC53</f>
+        <v>1.6856658233140509</v>
+      </c>
+    </row>
+    <row r="54" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G54" s="1">
         <v>3.7</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.7352380952380955</v>
       </c>
-      <c r="U54" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="V54" s="1">
-        <f t="shared" si="12"/>
-        <v>1.6856658233140509</v>
-      </c>
-    </row>
-    <row r="55" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U54" s="3">
+        <f t="shared" si="7"/>
+        <v>0.2867992684122298</v>
+      </c>
+      <c r="V54" s="3">
+        <f t="shared" si="8"/>
+        <v>0.65931061455248752</v>
+      </c>
+      <c r="W54" s="3">
+        <v>4</v>
+      </c>
+      <c r="X54" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y54" s="3">
+        <f t="shared" si="5"/>
+        <v>2.9240417266221801</v>
+      </c>
+      <c r="Z54" s="3">
+        <f t="shared" si="6"/>
+        <v>-7.5958273377819907E-2</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="AD54" s="1">
+        <f>U$27+V$27*AC54</f>
+        <v>1.7494855590615452</v>
+      </c>
+    </row>
+    <row r="55" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G55" s="1">
         <v>3.8</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.7695238095238093</v>
       </c>
-      <c r="U55" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="V55" s="1">
-        <f t="shared" si="12"/>
-        <v>1.7494855590615452</v>
-      </c>
-    </row>
-    <row r="56" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U55" s="3">
+        <f t="shared" si="7"/>
+        <v>0.28755885114600799</v>
+      </c>
+      <c r="V55" s="3">
+        <f t="shared" si="8"/>
+        <v>0.66234894548760026</v>
+      </c>
+      <c r="W55" s="3">
+        <v>6</v>
+      </c>
+      <c r="X55" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y55" s="3">
+        <f t="shared" si="5"/>
+        <v>4.261652524071609</v>
+      </c>
+      <c r="Z55" s="3">
+        <f t="shared" si="6"/>
+        <v>2.261652524071609</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AD55" s="1">
+        <f>U$27+V$27*AC55</f>
+        <v>1.8133052948090396</v>
+      </c>
+    </row>
+    <row r="56" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G56" s="1">
         <v>3.9</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.803809523809524</v>
       </c>
-      <c r="U56" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="V56" s="1">
-        <f t="shared" si="12"/>
-        <v>1.8133052948090396</v>
-      </c>
-    </row>
-    <row r="57" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U56" s="3">
+        <f t="shared" si="7"/>
+        <v>0.26494232590529188</v>
+      </c>
+      <c r="V56" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5266497940433037</v>
+      </c>
+      <c r="W56" s="3">
+        <v>5</v>
+      </c>
+      <c r="X56" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y56" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8981912961218104</v>
+      </c>
+      <c r="Z56" s="3">
+        <f t="shared" si="6"/>
+        <v>-2.1018087038781896</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="AD56" s="1">
+        <f>U$27+V$27*AC56</f>
+        <v>1.8771250305565337</v>
+      </c>
+    </row>
+    <row r="57" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G57" s="1">
         <v>4</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.8380952380952378</v>
       </c>
-      <c r="U57" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="V57" s="1">
-        <f t="shared" si="12"/>
-        <v>1.8771250305565337</v>
-      </c>
-    </row>
-    <row r="58" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U57" s="3">
+        <f t="shared" si="7"/>
+        <v>0.28596041294407376</v>
+      </c>
+      <c r="V57" s="3">
+        <f t="shared" si="8"/>
+        <v>0.63174022923721318</v>
+      </c>
+      <c r="W57" s="3">
+        <v>1</v>
+      </c>
+      <c r="X57" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="3">
+        <f t="shared" si="5"/>
+        <v>0.917700642181287</v>
+      </c>
+      <c r="Z57" s="3">
+        <f t="shared" si="6"/>
+        <v>-8.2299357818713004E-2</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="AD57" s="1">
+        <f>U$27+V$27*AC57</f>
+        <v>1.940944766304028</v>
+      </c>
+    </row>
+    <row r="58" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G58" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.8723809523809525</v>
       </c>
-      <c r="U58" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="V58" s="1">
-        <f t="shared" si="12"/>
-        <v>1.940944766304028</v>
-      </c>
-    </row>
-    <row r="59" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U58" s="3">
+        <f t="shared" si="7"/>
+        <v>0.28678340652226086</v>
+      </c>
+      <c r="V58" s="3">
+        <f t="shared" si="8"/>
+        <v>0.63256322281540034</v>
+      </c>
+      <c r="W58" s="3">
+        <v>3</v>
+      </c>
+      <c r="X58" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y58" s="3">
+        <f t="shared" si="5"/>
+        <v>2.1844730749684618</v>
+      </c>
+      <c r="Z58" s="3">
+        <f t="shared" si="6"/>
+        <v>0.18447307496846177</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="AD58" s="1">
+        <f>U$27+V$27*AC58</f>
+        <v>2.0047645020515223</v>
+      </c>
+    </row>
+    <row r="59" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G59" s="1">
         <v>4.2</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.9066666666666667</v>
       </c>
-      <c r="U59" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="V59" s="1">
-        <f t="shared" si="12"/>
-        <v>2.0047645020515223</v>
-      </c>
-    </row>
-    <row r="60" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U59" s="3">
+        <f t="shared" si="7"/>
+        <v>0.28493867577257626</v>
+      </c>
+      <c r="V59" s="3">
+        <f t="shared" si="8"/>
+        <v>0.62702903056634651</v>
+      </c>
+      <c r="W59" s="3">
+        <v>2</v>
+      </c>
+      <c r="X59" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y59" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5389967369052693</v>
+      </c>
+      <c r="Z59" s="3">
+        <f t="shared" si="6"/>
+        <v>-1.4610032630947307</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="AD59" s="1">
+        <f>U$27+V$27*AC59</f>
+        <v>2.0685842377990165</v>
+      </c>
+    </row>
+    <row r="60" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G60" s="1">
         <v>4.3</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.940952380952381</v>
       </c>
-      <c r="U60" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="V60" s="1">
-        <f t="shared" si="12"/>
-        <v>2.0685842377990165</v>
-      </c>
-    </row>
-    <row r="61" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U60" s="3">
+        <f t="shared" si="7"/>
+        <v>0.29954870840352354</v>
+      </c>
+      <c r="V60" s="3">
+        <f t="shared" si="8"/>
+        <v>0.65624909582824109</v>
+      </c>
+      <c r="W60" s="3">
+        <v>4</v>
+      </c>
+      <c r="X60" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y60" s="3">
+        <f t="shared" si="5"/>
+        <v>2.9245450917164879</v>
+      </c>
+      <c r="Z60" s="3">
+        <f t="shared" si="6"/>
+        <v>-7.545490828351209E-2</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD60" s="1">
+        <f>U$27+V$27*AC60</f>
+        <v>2.132403973546511</v>
+      </c>
+    </row>
+    <row r="61" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G61" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.9752380952380952</v>
       </c>
-      <c r="U61" s="1">
-        <v>3</v>
-      </c>
-      <c r="V61" s="1">
-        <f t="shared" si="12"/>
-        <v>2.132403973546511</v>
-      </c>
-    </row>
-    <row r="62" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U61" s="3">
+        <f t="shared" si="7"/>
+        <v>0.30030325748635867</v>
+      </c>
+      <c r="V61" s="3">
+        <f t="shared" si="8"/>
+        <v>0.65926729215958157</v>
+      </c>
+      <c r="W61" s="3">
+        <v>6</v>
+      </c>
+      <c r="X61" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y61" s="3">
+        <f t="shared" si="5"/>
+        <v>4.2559070104438481</v>
+      </c>
+      <c r="Z61" s="3">
+        <f t="shared" si="6"/>
+        <v>2.2559070104438481</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="AD61" s="1">
+        <f>U$27+V$27*AC61</f>
+        <v>2.1962237092940051</v>
+      </c>
+    </row>
+    <row r="62" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G62" s="1">
         <v>4.5</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.0095238095238095</v>
       </c>
-      <c r="U62" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="V62" s="1">
-        <f t="shared" si="12"/>
-        <v>2.1962237092940051</v>
-      </c>
-    </row>
-    <row r="63" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U62" s="3">
+        <f t="shared" si="7"/>
+        <v>0.27774418738192019</v>
+      </c>
+      <c r="V62" s="3">
+        <f t="shared" si="8"/>
+        <v>0.52391287153295063</v>
+      </c>
+      <c r="W62" s="3">
+        <v>5</v>
+      </c>
+      <c r="X62" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3">
+        <f t="shared" si="5"/>
+        <v>2.8973085450466733</v>
+      </c>
+      <c r="Z62" s="3">
+        <f t="shared" si="6"/>
+        <v>-2.1026914549533267</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AD62" s="1">
+        <f>U$27+V$27*AC62</f>
+        <v>2.2600434450414992</v>
+      </c>
+    </row>
+    <row r="63" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G63" s="1">
         <v>4.5999999999999996</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.0438095238095233</v>
       </c>
-      <c r="U63" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="V63" s="1">
-        <f t="shared" si="12"/>
-        <v>2.2600434450414992</v>
-      </c>
-    </row>
-    <row r="64" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U63" s="3">
+        <f t="shared" si="7"/>
+        <v>0.29877110193145345</v>
+      </c>
+      <c r="V63" s="3">
+        <f t="shared" si="8"/>
+        <v>0.62904744428061699</v>
+      </c>
+      <c r="W63" s="3">
+        <v>1</v>
+      </c>
+      <c r="X63" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="3">
+        <f t="shared" si="5"/>
+        <v>0.92781854621207049</v>
+      </c>
+      <c r="Z63" s="3">
+        <f t="shared" si="6"/>
+        <v>-7.2181453787929506E-2</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AD63" s="1">
+        <f>U$27+V$27*AC63</f>
+        <v>2.3238631807889933</v>
+      </c>
+    </row>
+    <row r="64" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G64" s="1">
         <v>4.7</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.078095238095238</v>
       </c>
-      <c r="U64" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="V64" s="1">
-        <f t="shared" si="12"/>
-        <v>2.3238631807889933</v>
-      </c>
-    </row>
-    <row r="65" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U64" s="3">
+        <f t="shared" si="7"/>
+        <v>0.29949291646933274</v>
+      </c>
+      <c r="V64" s="3">
+        <f t="shared" si="8"/>
+        <v>0.62976925881849632</v>
+      </c>
+      <c r="W64" s="3">
+        <v>3</v>
+      </c>
+      <c r="X64" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y64" s="3">
+        <f t="shared" si="5"/>
+        <v>2.1888006929248216</v>
+      </c>
+      <c r="Z64" s="3">
+        <f t="shared" si="6"/>
+        <v>0.1888006929248216</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="AD64" s="1">
+        <f>U$27+V$27*AC64</f>
+        <v>2.3876829165364879</v>
+      </c>
+    </row>
+    <row r="65" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G65" s="1">
         <v>4.8</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.1123809523809522</v>
       </c>
-      <c r="U65" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="V65" s="1">
-        <f t="shared" si="12"/>
-        <v>2.3876829165364879</v>
-      </c>
-    </row>
-    <row r="66" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U65" s="3">
+        <f t="shared" si="7"/>
+        <v>0.29760490954008451</v>
+      </c>
+      <c r="V65" s="3">
+        <f t="shared" si="8"/>
+        <v>0.62410523803075169</v>
+      </c>
+      <c r="W65" s="3">
+        <v>2</v>
+      </c>
+      <c r="X65" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y65" s="3">
+        <f t="shared" si="5"/>
+        <v>1.5458153856015879</v>
+      </c>
+      <c r="Z65" s="3">
+        <f t="shared" si="6"/>
+        <v>-1.4541846143984121</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AD65" s="1">
+        <f>U$27+V$27*AC65</f>
+        <v>2.451502652283982</v>
+      </c>
+    </row>
+    <row r="66" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G66" s="1">
         <v>4.9000000000000004</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.1466666666666665</v>
       </c>
-      <c r="U66" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="V66" s="1">
-        <f t="shared" si="12"/>
-        <v>2.451502652283982</v>
-      </c>
-    </row>
-    <row r="67" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U66" s="3">
+        <f t="shared" si="7"/>
+        <v>0.31214675568406863</v>
+      </c>
+      <c r="V66" s="3">
+        <f t="shared" si="8"/>
+        <v>0.65318893031871994</v>
+      </c>
+      <c r="W66" s="3">
+        <v>4</v>
+      </c>
+      <c r="X66" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y66" s="3">
+        <f t="shared" si="5"/>
+        <v>2.9249024769589482</v>
+      </c>
+      <c r="Z66" s="3">
+        <f t="shared" si="6"/>
+        <v>-7.5097523041051772E-2</v>
+      </c>
+      <c r="AC66" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="AD66" s="1">
+        <f>U$27+V$27*AC66</f>
+        <v>2.5153223880314766</v>
+      </c>
+    </row>
+    <row r="67" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G67" s="1">
         <v>5</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.1809523809523812</v>
       </c>
-      <c r="U67" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="V67" s="1">
-        <f t="shared" si="12"/>
-        <v>2.5153223880314766</v>
-      </c>
-    </row>
-    <row r="68" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U67" s="3">
+        <f t="shared" si="7"/>
+        <v>0.31289773091447914</v>
+      </c>
+      <c r="V67" s="3">
+        <f t="shared" si="8"/>
+        <v>0.65619283124036198</v>
+      </c>
+      <c r="W67" s="3">
+        <v>6</v>
+      </c>
+      <c r="X67" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y67" s="3">
+        <f t="shared" si="5"/>
+        <v>4.2500547183566511</v>
+      </c>
+      <c r="Z67" s="3">
+        <f t="shared" si="6"/>
+        <v>2.2500547183566511</v>
+      </c>
+      <c r="AC67" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="AD67" s="1">
+        <f>U$27+V$27*AC67</f>
+        <v>2.5791421237789707</v>
+      </c>
+    </row>
+    <row r="68" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G68" s="1">
         <v>5.0999999999999996</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.215238095238095</v>
       </c>
-      <c r="U68" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="V68" s="1">
-        <f t="shared" si="12"/>
-        <v>2.5791421237789707</v>
-      </c>
-    </row>
-    <row r="69" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U68" s="3">
+        <f t="shared" si="7"/>
+        <v>0.29039718373091261</v>
+      </c>
+      <c r="V68" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5211895481389629</v>
+      </c>
+      <c r="W68" s="3">
+        <v>5</v>
+      </c>
+      <c r="X68" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y68" s="3">
+        <f t="shared" ref="Y68:Y74" si="15">U68+V68*W68</f>
+        <v>2.8963449244257271</v>
+      </c>
+      <c r="Z68" s="3">
+        <f t="shared" ref="Z68:Z74" si="16">Y68-X68</f>
+        <v>-2.1036550755742729</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="AD68" s="1">
+        <f>U$27+V$27*AC68</f>
+        <v>2.6429618595264648</v>
+      </c>
+    </row>
+    <row r="69" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G69" s="1">
         <v>5.2</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.2495238095238097</v>
       </c>
-      <c r="U69" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="V69" s="1">
-        <f t="shared" si="12"/>
-        <v>2.6429618595264648</v>
-      </c>
-    </row>
-    <row r="70" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U69" s="3">
+        <f t="shared" ref="U69:U75" si="17">U68-$AA$3*$Z68</f>
+        <v>0.31143373448665534</v>
+      </c>
+      <c r="V69" s="3">
+        <f t="shared" ref="V69:V75" si="18">V68-$AA$3*$Z68*W68</f>
+        <v>0.62637230191767657</v>
+      </c>
+      <c r="W69" s="3">
+        <v>1</v>
+      </c>
+      <c r="X69" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="3">
+        <f t="shared" si="15"/>
+        <v>0.93780603640433191</v>
+      </c>
+      <c r="Z69" s="3">
+        <f t="shared" si="16"/>
+        <v>-6.2193963595668089E-2</v>
+      </c>
+      <c r="AC69" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="AD69" s="1">
+        <f>U$27+V$27*AC69</f>
+        <v>2.7067815952739593</v>
+      </c>
+    </row>
+    <row r="70" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G70" s="1">
         <v>5.3</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.2838095238095235</v>
       </c>
-      <c r="U70" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="V70" s="1">
-        <f t="shared" si="12"/>
-        <v>2.7067815952739593</v>
-      </c>
-    </row>
-    <row r="71" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U70" s="3">
+        <f t="shared" si="17"/>
+        <v>0.31205567412261204</v>
+      </c>
+      <c r="V70" s="3">
+        <f t="shared" si="18"/>
+        <v>0.62699424155363326</v>
+      </c>
+      <c r="W70" s="3">
+        <v>3</v>
+      </c>
+      <c r="X70" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y70" s="3">
+        <f t="shared" si="15"/>
+        <v>2.1930383987835116</v>
+      </c>
+      <c r="Z70" s="3">
+        <f t="shared" si="16"/>
+        <v>0.19303839878351159</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD70" s="1">
+        <f>U$27+V$27*AC70</f>
+        <v>2.7706013310214535</v>
+      </c>
+    </row>
+    <row r="71" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G71" s="1">
         <v>5.4</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.3180952380952382</v>
       </c>
-      <c r="U71" s="1">
-        <v>4</v>
-      </c>
-      <c r="V71" s="1">
-        <f t="shared" si="12"/>
-        <v>2.7706013310214535</v>
-      </c>
-    </row>
-    <row r="72" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U71" s="3">
+        <f t="shared" si="17"/>
+        <v>0.31012529013477691</v>
+      </c>
+      <c r="V71" s="3">
+        <f t="shared" si="18"/>
+        <v>0.62120308959012793</v>
+      </c>
+      <c r="W71" s="3">
+        <v>2</v>
+      </c>
+      <c r="X71" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y71" s="3">
+        <f t="shared" si="15"/>
+        <v>1.5525314693150327</v>
+      </c>
+      <c r="Z71" s="3">
+        <f t="shared" si="16"/>
+        <v>-1.4474685306849673</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD71" s="1">
+        <f>U$27+V$27*AC71</f>
+        <v>2.8344210667689476</v>
+      </c>
+    </row>
+    <row r="72" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G72" s="1">
         <v>5.5</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.352380952380952</v>
       </c>
-      <c r="U72" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="V72" s="1">
-        <f t="shared" si="12"/>
-        <v>2.8344210667689476</v>
-      </c>
-    </row>
-    <row r="73" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U72" s="3">
+        <f t="shared" si="17"/>
+        <v>0.32459997544162661</v>
+      </c>
+      <c r="V72" s="3">
+        <f t="shared" si="18"/>
+        <v>0.65015246020382733</v>
+      </c>
+      <c r="W72" s="3">
+        <v>4</v>
+      </c>
+      <c r="X72" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y72" s="3">
+        <f t="shared" si="15"/>
+        <v>2.925209816256936</v>
+      </c>
+      <c r="Z72" s="3">
+        <f t="shared" si="16"/>
+        <v>-7.4790183743064009E-2</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="AD72" s="1">
+        <f>U$27+V$27*AC72</f>
+        <v>2.8982408025164421</v>
+      </c>
+    </row>
+    <row r="73" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G73" s="1">
         <v>5.6</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.3866666666666667</v>
       </c>
-      <c r="U73" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="V73" s="1">
-        <f t="shared" si="12"/>
-        <v>2.8982408025164421</v>
-      </c>
-    </row>
-    <row r="74" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U73" s="3">
+        <f t="shared" si="17"/>
+        <v>0.32534787727905723</v>
+      </c>
+      <c r="V73" s="3">
+        <f t="shared" si="18"/>
+        <v>0.65314406755354992</v>
+      </c>
+      <c r="W73" s="3">
+        <v>6</v>
+      </c>
+      <c r="X73" s="3">
+        <v>2</v>
+      </c>
+      <c r="Y73" s="3">
+        <f t="shared" si="15"/>
+        <v>4.2442122826003565</v>
+      </c>
+      <c r="Z73" s="3">
+        <f t="shared" si="16"/>
+        <v>2.2442122826003565</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="AD73" s="1">
+        <f>U$27+V$27*AC73</f>
+        <v>2.9620605382639362</v>
+      </c>
+    </row>
+    <row r="74" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G74" s="1">
         <v>5.7</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.420952380952381</v>
       </c>
-      <c r="U74" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="V74" s="1">
-        <f t="shared" si="12"/>
-        <v>2.9620605382639362</v>
-      </c>
-    </row>
-    <row r="75" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="U74" s="3">
+        <f t="shared" si="17"/>
+        <v>0.30290575445305368</v>
+      </c>
+      <c r="V74" s="3">
+        <f t="shared" si="18"/>
+        <v>0.5184913305975285</v>
+      </c>
+      <c r="W74" s="3">
+        <v>5</v>
+      </c>
+      <c r="X74" s="3">
+        <v>5</v>
+      </c>
+      <c r="Y74" s="3">
+        <f t="shared" si="15"/>
+        <v>2.8953624074406963</v>
+      </c>
+      <c r="Z74" s="3">
+        <f t="shared" si="16"/>
+        <v>-2.1046375925593037</v>
+      </c>
+      <c r="AC74" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AD74" s="1">
+        <f>U$27+V$27*AC74</f>
+        <v>3.0258802740114308</v>
+      </c>
+    </row>
+    <row r="75" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G75" s="1">
         <v>5.8</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.4552380952380952</v>
       </c>
-      <c r="U75" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="V75" s="1">
-        <f t="shared" si="12"/>
-        <v>3.0258802740114308</v>
-      </c>
-    </row>
-    <row r="76" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="S75" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T75" s="13"/>
+      <c r="U75" s="3">
+        <f t="shared" si="17"/>
+        <v>0.32395213037864673</v>
+      </c>
+      <c r="V75" s="3">
+        <f t="shared" si="18"/>
+        <v>0.62372321022549371</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AD75" s="1">
+        <f>U$27+V$27*AC75</f>
+        <v>3.0897000097589249</v>
+      </c>
+    </row>
+    <row r="76" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G76" s="1">
         <v>5.9</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.4895238095238099</v>
       </c>
-      <c r="U76" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="V76" s="1">
-        <f t="shared" si="12"/>
-        <v>3.0897000097589249</v>
-      </c>
-    </row>
-    <row r="77" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC76" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD76" s="1">
+        <f>U$27+V$27*AC76</f>
+        <v>3.153519745506419</v>
+      </c>
+    </row>
+    <row r="77" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G77" s="1">
         <v>6</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.5238095238095237</v>
       </c>
-      <c r="U77" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="V77" s="1">
-        <f t="shared" si="12"/>
-        <v>3.153519745506419</v>
-      </c>
-    </row>
-    <row r="78" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC77" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="AD77" s="1">
+        <f>U$27+V$27*AC77</f>
+        <v>3.2173394812539136</v>
+      </c>
+    </row>
+    <row r="78" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G78" s="1">
         <v>6.1</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.5580952380952375</v>
       </c>
-      <c r="U78" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="V78" s="1">
-        <f t="shared" si="12"/>
-        <v>3.2173394812539136</v>
-      </c>
-    </row>
-    <row r="79" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC78" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="AD78" s="1">
+        <f>U$27+V$27*AC78</f>
+        <v>3.2811592170014077</v>
+      </c>
+    </row>
+    <row r="79" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G79" s="1">
         <v>6.2</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.5923809523809522</v>
       </c>
-      <c r="U79" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="V79" s="1">
-        <f t="shared" si="12"/>
-        <v>3.2811592170014077</v>
-      </c>
-    </row>
-    <row r="80" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC79" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AD79" s="1">
+        <f>U$27+V$27*AC79</f>
+        <v>3.3449789527489022</v>
+      </c>
+    </row>
+    <row r="80" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G80" s="1">
         <v>6.3</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.6266666666666669</v>
       </c>
-      <c r="U80" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="V80" s="1">
-        <f t="shared" si="12"/>
-        <v>3.3449789527489022</v>
-      </c>
-    </row>
-    <row r="81" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC80" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD80" s="1">
+        <f>U$27+V$27*AC80</f>
+        <v>3.4087986884963963</v>
+      </c>
+    </row>
+    <row r="81" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G81" s="1">
         <v>6.4</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" ref="H81:H97" si="14">H$13+G$13*G81</f>
+        <f t="shared" ref="H81:H97" si="19">H$13+G$13*G81</f>
         <v>3.6609523809523807</v>
       </c>
-      <c r="U81" s="1">
-        <v>5</v>
-      </c>
-      <c r="V81" s="1">
-        <f t="shared" si="12"/>
-        <v>3.4087986884963963</v>
-      </c>
-    </row>
-    <row r="82" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC81" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AD81" s="1">
+        <f>U$27+V$27*AC81</f>
+        <v>3.47261842424389</v>
+      </c>
+    </row>
+    <row r="82" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G82" s="1">
         <v>6.5</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.6952380952380954</v>
       </c>
-      <c r="U82" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="V82" s="1">
-        <f t="shared" si="12"/>
-        <v>3.47261842424389</v>
-      </c>
-    </row>
-    <row r="83" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC82" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="AD82" s="1">
+        <f>U$27+V$27*AC82</f>
+        <v>3.5364381599913846</v>
+      </c>
+    </row>
+    <row r="83" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G83" s="1">
         <v>6.6</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.7295238095238092</v>
       </c>
-      <c r="U83" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="V83" s="1">
-        <f t="shared" si="12"/>
-        <v>3.5364381599913846</v>
-      </c>
-    </row>
-    <row r="84" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC83" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="AD83" s="1">
+        <f>U$27+V$27*AC83</f>
+        <v>3.6002578957388787</v>
+      </c>
+    </row>
+    <row r="84" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G84" s="1">
         <v>6.7</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.7638095238095239</v>
       </c>
-      <c r="U84" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="V84" s="1">
-        <f t="shared" si="12"/>
-        <v>3.6002578957388787</v>
-      </c>
-    </row>
-    <row r="85" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC84" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="AD84" s="1">
+        <f>U$27+V$27*AC84</f>
+        <v>3.6640776314863732</v>
+      </c>
+    </row>
+    <row r="85" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G85" s="1">
         <v>6.8</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.7980952380952377</v>
       </c>
-      <c r="U85" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="V85" s="1">
-        <f t="shared" si="12"/>
-        <v>3.6640776314863732</v>
-      </c>
-    </row>
-    <row r="86" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC85" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="AD85" s="1">
+        <f>U$27+V$27*AC85</f>
+        <v>3.7278973672338673</v>
+      </c>
+    </row>
+    <row r="86" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G86" s="1">
         <v>6.9</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.8323809523809524</v>
       </c>
-      <c r="U86" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="V86" s="1">
-        <f t="shared" si="12"/>
-        <v>3.7278973672338673</v>
-      </c>
-    </row>
-    <row r="87" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC86" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="AD86" s="1">
+        <f>U$27+V$27*AC86</f>
+        <v>3.7917171029813614</v>
+      </c>
+    </row>
+    <row r="87" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G87" s="1">
         <v>7</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.8666666666666663</v>
       </c>
-      <c r="U87" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="V87" s="1">
-        <f t="shared" si="12"/>
-        <v>3.7917171029813614</v>
-      </c>
-    </row>
-    <row r="88" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC87" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="AD87" s="1">
+        <f>U$27+V$27*AC87</f>
+        <v>3.855536838728856</v>
+      </c>
+    </row>
+    <row r="88" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G88" s="1">
         <v>7.1</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.9009523809523809</v>
       </c>
-      <c r="U88" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="V88" s="1">
-        <f t="shared" si="12"/>
-        <v>3.855536838728856</v>
-      </c>
-    </row>
-    <row r="89" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC88" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="AD88" s="1">
+        <f>U$27+V$27*AC88</f>
+        <v>3.9193565744763501</v>
+      </c>
+    </row>
+    <row r="89" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G89" s="1">
         <v>7.2</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.9352380952380956</v>
       </c>
-      <c r="U89" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="V89" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9193565744763501</v>
-      </c>
-    </row>
-    <row r="90" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC89" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="AD89" s="1">
+        <f>U$27+V$27*AC89</f>
+        <v>3.9831763102238447</v>
+      </c>
+    </row>
+    <row r="90" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G90" s="1">
         <v>7.3</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.9695238095238095</v>
       </c>
-      <c r="U90" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="V90" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9831763102238447</v>
-      </c>
-    </row>
-    <row r="91" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC90" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD90" s="1">
+        <f>U$27+V$27*AC90</f>
+        <v>4.0469960459713388</v>
+      </c>
+    </row>
+    <row r="91" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G91" s="1">
         <v>7.4</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4.0038095238095242</v>
       </c>
-      <c r="U91" s="1">
-        <v>6</v>
-      </c>
-      <c r="V91" s="1">
-        <f t="shared" si="12"/>
-        <v>4.0469960459713388</v>
-      </c>
-    </row>
-    <row r="92" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC91" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="AD91" s="1">
+        <f>U$27+V$27*AC91</f>
+        <v>4.1108157817188333</v>
+      </c>
+    </row>
+    <row r="92" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G92" s="1">
         <v>7.5</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4.038095238095238</v>
       </c>
-      <c r="U92" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="V92" s="1">
-        <f t="shared" si="12"/>
-        <v>4.1108157817188333</v>
-      </c>
-    </row>
-    <row r="93" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC92" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="AD92" s="1">
+        <f>U$27+V$27*AC92</f>
+        <v>4.1746355174663279</v>
+      </c>
+    </row>
+    <row r="93" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G93" s="1">
         <v>7.6</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4.0723809523809518</v>
       </c>
-      <c r="U93" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="V93" s="1">
-        <f t="shared" si="12"/>
-        <v>4.1746355174663279</v>
-      </c>
-    </row>
-    <row r="94" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC93" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="AD93" s="1">
+        <f>U$27+V$27*AC93</f>
+        <v>4.2384552532138215</v>
+      </c>
+    </row>
+    <row r="94" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G94" s="1">
         <v>7.7</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4.1066666666666665</v>
       </c>
-      <c r="U94" s="1">
-        <v>6.3</v>
-      </c>
-      <c r="V94" s="1">
-        <f t="shared" si="12"/>
-        <v>4.2384552532138215</v>
-      </c>
-    </row>
-    <row r="95" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC94" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="AD94" s="1">
+        <f>U$27+V$27*AC94</f>
+        <v>4.3022749889613161</v>
+      </c>
+    </row>
+    <row r="95" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G95" s="1">
         <v>7.8</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4.1409523809523812</v>
       </c>
-      <c r="U95" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="V95" s="1">
-        <f t="shared" si="12"/>
-        <v>4.3022749889613161</v>
-      </c>
-    </row>
-    <row r="96" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC95" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="AD95" s="1">
+        <f>U$27+V$27*AC95</f>
+        <v>4.3660947247088107</v>
+      </c>
+    </row>
+    <row r="96" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G96" s="1">
         <v>7.9</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4.175238095238095</v>
       </c>
-      <c r="U96" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="V96" s="1">
-        <f t="shared" ref="V96:V111" si="15">U$27+V$27*U96</f>
-        <v>4.3660947247088107</v>
-      </c>
-    </row>
-    <row r="97" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="AC96" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="AD96" s="1">
+        <f>U$27+V$27*AC96</f>
+        <v>4.4299144604563043</v>
+      </c>
+    </row>
+    <row r="97" spans="7:30" x14ac:dyDescent="0.25">
       <c r="G97" s="1">
         <v>8</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4.2095238095238097</v>
       </c>
-      <c r="U97" s="1">
-        <v>6.6</v>
-      </c>
-      <c r="V97" s="1">
-        <f t="shared" si="15"/>
-        <v>4.4299144604563043</v>
-      </c>
-    </row>
-    <row r="98" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="U98" s="1">
+      <c r="AC97" s="1">
         <v>6.7</v>
       </c>
-      <c r="V98" s="1">
-        <f t="shared" si="15"/>
+      <c r="AD97" s="1">
+        <f>U$27+V$27*AC97</f>
         <v>4.4937341962037989</v>
       </c>
     </row>
-    <row r="99" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="U99" s="1">
+    <row r="98" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="AC98" s="1">
         <v>6.8</v>
       </c>
-      <c r="V99" s="1">
-        <f t="shared" si="15"/>
+      <c r="AD98" s="1">
+        <f>U$27+V$27*AC98</f>
         <v>4.5575539319512934</v>
       </c>
     </row>
-    <row r="100" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="U100" s="1">
+    <row r="99" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="AC99" s="1">
         <v>6.9</v>
       </c>
-      <c r="V100" s="1">
-        <f t="shared" si="15"/>
+      <c r="AD99" s="1">
+        <f>U$27+V$27*AC99</f>
         <v>4.621373667698788</v>
       </c>
     </row>
-    <row r="101" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="U101" s="1">
+    <row r="100" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="AC100" s="1">
         <v>7</v>
       </c>
-      <c r="V101" s="1">
-        <f t="shared" si="15"/>
+      <c r="AD100" s="1">
+        <f>U$27+V$27*AC100</f>
         <v>4.6851934034462817</v>
       </c>
     </row>
-    <row r="102" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="U102" s="1">
+    <row r="101" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="AC101" s="1">
         <v>7.1</v>
       </c>
-      <c r="V102" s="1">
-        <f t="shared" si="15"/>
+      <c r="AD101" s="1">
+        <f>U$27+V$27*AC101</f>
         <v>4.7490131391937762</v>
       </c>
     </row>
-    <row r="103" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="U103" s="1">
+    <row r="102" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="AC102" s="1">
         <v>7.2</v>
       </c>
-      <c r="V103" s="1">
-        <f t="shared" si="15"/>
+      <c r="AD102" s="1">
+        <f>U$27+V$27*AC102</f>
         <v>4.8128328749412708</v>
       </c>
     </row>
-    <row r="104" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="U104" s="1">
+    <row r="103" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="AC103" s="1">
         <v>7.3</v>
       </c>
-      <c r="V104" s="1">
-        <f t="shared" si="15"/>
+      <c r="AD103" s="1">
+        <f>U$27+V$27*AC103</f>
         <v>4.8766526106887644</v>
       </c>
     </row>
-    <row r="105" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="U105" s="1">
+    <row r="104" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="AC104" s="1">
         <v>7.4</v>
       </c>
-      <c r="V105" s="1">
-        <f t="shared" si="15"/>
+      <c r="AD104" s="1">
+        <f>U$27+V$27*AC104</f>
         <v>4.940472346436259</v>
       </c>
     </row>
-    <row r="106" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="U106" s="1">
+    <row r="105" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="AC105" s="1">
         <v>7.5</v>
       </c>
-      <c r="V106" s="1">
-        <f t="shared" si="15"/>
+      <c r="AD105" s="1">
+        <f>U$27+V$27*AC105</f>
         <v>5.0042920821837535</v>
       </c>
     </row>
-    <row r="107" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="U107" s="1">
+    <row r="106" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="AC106" s="1">
         <v>7.6</v>
       </c>
-      <c r="V107" s="1">
-        <f t="shared" si="15"/>
+      <c r="AD106" s="1">
+        <f>U$27+V$27*AC106</f>
         <v>5.0681118179312472</v>
       </c>
     </row>
-    <row r="108" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="U108" s="1">
+    <row r="107" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="AC107" s="1">
         <v>7.7</v>
       </c>
-      <c r="V108" s="1">
-        <f t="shared" si="15"/>
+      <c r="AD107" s="1">
+        <f>U$27+V$27*AC107</f>
         <v>5.1319315536787418</v>
       </c>
     </row>
-    <row r="109" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="U109" s="1">
+    <row r="108" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="AC108" s="1">
         <v>7.8</v>
       </c>
-      <c r="V109" s="1">
-        <f t="shared" si="15"/>
+      <c r="AD108" s="1">
+        <f>U$27+V$27*AC108</f>
         <v>5.1957512894262363</v>
       </c>
     </row>
-    <row r="110" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="U110" s="1">
+    <row r="109" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="AC109" s="1">
         <v>7.9</v>
       </c>
-      <c r="V110" s="1">
-        <f t="shared" si="15"/>
+      <c r="AD109" s="1">
+        <f>U$27+V$27*AC109</f>
         <v>5.2595710251737309</v>
       </c>
     </row>
-    <row r="111" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="U111" s="1">
+    <row r="110" spans="7:30" x14ac:dyDescent="0.25">
+      <c r="AC110" s="1">
         <v>8</v>
       </c>
-      <c r="V111" s="1">
-        <f t="shared" si="15"/>
+      <c r="AD110" s="1">
+        <f>U$27+V$27*AC110</f>
         <v>5.3233907609212245</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="S75:T75"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="U1:AA1"/>
-    <mergeCell ref="U28:V28"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="S27:T27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
